--- a/sample-file/Product List.xlsx
+++ b/sample-file/Product List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ductrungta/Desktop/Dahuli/calculate-goods/sample-file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112DADBB-14A7-DD4E-B229-C5A70C8A5FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB71E8D-577D-614F-B1EE-EB14C66F2FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,9 +117,6 @@
     <t>Car tissue box</t>
   </si>
   <si>
-    <t>Auto seat belt shoulder</t>
-  </si>
-  <si>
     <t>2 Car seat belt shoulder protection</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>User manual printing fee</t>
+  </si>
+  <si>
+    <t>Auto seat belt shoulder protection</t>
   </si>
 </sst>
 </file>
@@ -248,11 +248,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +472,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -501,13 +501,13 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
       <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
@@ -764,7 +764,7 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -786,7 +786,7 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -808,7 +808,7 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -830,7 +830,7 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -838,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C13" s="8">
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="6"/>
@@ -852,7 +852,7 @@
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -860,16 +860,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" s="8">
         <v>6</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>44</v>
+        <v>32</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>25</v>
@@ -877,10 +877,10 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -888,16 +888,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="8">
         <v>6</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>25</v>
@@ -905,10 +905,10 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -916,16 +916,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="8">
         <v>6</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>25</v>
@@ -933,10 +933,10 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -944,16 +944,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="8">
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>25</v>
@@ -961,10 +961,10 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -972,16 +972,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="8">
         <v>10</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>25</v>
@@ -990,13 +990,13 @@
         <v>23</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
@@ -1004,16 +1004,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="8">
         <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>25</v>
@@ -1022,13 +1022,13 @@
         <v>23</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
